--- a/biology/Zoologie/Gymnobelideus_leadbeateri/Gymnobelideus_leadbeateri.xlsx
+++ b/biology/Zoologie/Gymnobelideus_leadbeateri/Gymnobelideus_leadbeateri.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le phalanger de Leadbeater (Gymnobelideus leadbeateri) est une espèce d'opossum de la famille des Petauridae endémique de l'Australie. C'est l'unique espèce du genre Gymnobelideus. Il doit son nom à l'ancien taxidermiste du musée d'histoire naturelle de l'État de Victoria, John Leadbeater.
 </t>
@@ -511,10 +523,12 @@
           <t>Répartition et habitat</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce est endémique à une petite zone où l'on trouve encore de vieux Eucalyptus regnans dans les montagnes du centre de l'État de Victoria, en Australie, au nord-est de Melbourne.
-Il est assez commun dans ses zones d'habitat mais comme il demande des réserves de nourriture pour toute l'année et des trous pour se réfugier dans la journée ceci limite fortement son expansion. La zone où l'on rencontre cet animal étant réduite à moins de 5 000 km2, morcelée et dégradée, l'espèce est déclarée en danger[2].
+Il est assez commun dans ses zones d'habitat mais comme il demande des réserves de nourriture pour toute l'année et des trous pour se réfugier dans la journée ceci limite fortement son expansion. La zone où l'on rencontre cet animal étant réduite à moins de 5 000 km2, morcelée et dégradée, l'espèce est déclarée en danger.
 </t>
         </is>
       </c>
